--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\double pendulum\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_Tai_lieu_hoc_tap\Do_an\Do_an_tn\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3564A46C-4CA3-4CFD-AE50-7EF95BEC5338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FAE91D-D307-4C56-82CC-F71954378F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="105" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{7A473C7D-50E6-4A4D-BC3D-26E431486829}"/>
+    <workbookView xWindow="8916" yWindow="1944" windowWidth="12012" windowHeight="9456" firstSheet="1" activeTab="1" xr2:uid="{7A473C7D-50E6-4A4D-BC3D-26E431486829}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Data (Ly thuyet)" sheetId="1" r:id="rId1"/>
@@ -451,17 +451,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73491464-C86D-4168-A5DC-AFD0C9BE159B}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -523,26 +523,26 @@
       </c>
       <c r="C2">
         <f>2*3.14/(3*H2)</f>
-        <v>8.6533388527210264E-2</v>
+        <v>0.24987693235735253</v>
       </c>
       <c r="D2">
         <f>4*3.14/(3*H2)</f>
-        <v>0.17306677705442053</v>
+        <v>0.49975386471470506</v>
       </c>
       <c r="E2">
         <f>2*3.14/(H2)</f>
-        <v>0.25960016558163079</v>
+        <v>0.7496307970720576</v>
       </c>
       <c r="G2">
         <v>0.1</v>
       </c>
       <c r="H2">
-        <f>SQRT(9.81*(J2-SQRT(K2)/2))</f>
-        <v>24.191047744248323</v>
+        <f>SQRT(9.81*(J2-SQRT(K2))/2)</f>
+        <v>8.3774573090229385</v>
       </c>
       <c r="I2">
-        <f>SQRT(9.81*(J2+SQRT(K2)/2))</f>
-        <v>38.404338414240364</v>
+        <f>SQRT(9.81*(J2+SQRT(K2))/2)</f>
+        <v>30.981739929117897</v>
       </c>
       <c r="J2">
         <f>(P2+B2)*(1/A2+1/G2)/P2</f>
@@ -554,15 +554,15 @@
       </c>
       <c r="L2">
         <f>2*3.14/(3*I2)</f>
-        <v>5.4507730630691538E-2</v>
+        <v>6.7566680829501569E-2</v>
       </c>
       <c r="M2">
         <f>2*3.14/(3*I2)</f>
-        <v>5.4507730630691538E-2</v>
+        <v>6.7566680829501569E-2</v>
       </c>
       <c r="N2">
         <f>2*3.14/(3*I2)</f>
-        <v>5.4507730630691538E-2</v>
+        <v>6.7566680829501569E-2</v>
       </c>
       <c r="O2">
         <v>0.5</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -583,46 +583,46 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C52" si="0">2*3.14/(3*H3)</f>
-        <v>9.1458003351824135E-2</v>
+        <v>0.25751190853351774</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D52" si="1">4*3.14/(3*H3)</f>
-        <v>0.18291600670364827</v>
+        <v>0.51502381706703548</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E52" si="2">2*3.14/(H3)</f>
-        <v>0.27437401005547241</v>
+        <v>0.77253572560055317</v>
       </c>
       <c r="G3">
         <v>0.1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H52" si="3">SQRT(9.81*(J3-SQRT(K3)/2))</f>
-        <v>22.888465269470391</v>
+        <f>SQRT(9.81*(J3-SQRT(K3))/2)</f>
+        <v>8.1290738950849928</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I52" si="4">SQRT(9.81*(J3+SQRT(K3)/2))</f>
-        <v>36.156854918649209</v>
+        <f t="shared" ref="I3:I52" si="3">SQRT(9.81*(J3+SQRT(K3))/2)</f>
+        <v>29.146494773956057</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J52" si="5">(P3+B3)*(1/A3+1/G3)/P3</f>
+        <f t="shared" ref="J3:J52" si="4">(P3+B3)*(1/A3+1/G3)/P3</f>
         <v>93.333333333333329</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K52" si="6">((P3+B3)/P3)^2*(1/A3+1/G3)^2-4*(P3+B3)/(P3*A3*G3)</f>
+        <f t="shared" ref="K3:K52" si="5">((P3+B3)/P3)^2*(1/A3+1/G3)^2-4*(P3+B3)/(P3*A3*G3)</f>
         <v>6377.7777777777765</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L52" si="7">2*3.14/(3*I3)</f>
-        <v>5.7895891056985178E-2</v>
+        <f t="shared" ref="L3:L52" si="6">2*3.14/(3*I3)</f>
+        <v>7.1821100601223514E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M52" si="8">2*3.14/(3*I3)</f>
-        <v>5.7895891056985178E-2</v>
+        <f t="shared" ref="M3:M52" si="7">2*3.14/(3*I3)</f>
+        <v>7.1821100601223514E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N52" si="9">2*3.14/(3*I3)</f>
-        <v>5.7895891056985178E-2</v>
+        <f t="shared" ref="N3:N52" si="8">2*3.14/(3*I3)</f>
+        <v>7.1821100601223514E-2</v>
       </c>
       <c r="O3">
         <v>0.5</v>
@@ -631,7 +631,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -640,46 +640,46 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>9.5617283588467189E-2</v>
+        <v>0.26506133500302298</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0.19123456717693438</v>
+        <v>0.53012267000604596</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>0.28685185076540154</v>
+        <v>0.79518400500906894</v>
       </c>
       <c r="G4">
         <v>0.1</v>
       </c>
       <c r="H4">
+        <f t="shared" ref="H4:H52" si="9">SQRT(9.81*(J4-SQRT(K4))/2)</f>
+        <v>7.8975431603762933</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="3"/>
-        <v>21.89283416942645</v>
-      </c>
-      <c r="I4">
+        <v>27.775507412646729</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="4"/>
-        <v>34.473233269161064</v>
-      </c>
-      <c r="J4">
+        <v>84.999999999999972</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="5"/>
-        <v>84.999999999999972</v>
-      </c>
-      <c r="K4">
+        <v>5224.9999999999982</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="6"/>
-        <v>5224.9999999999982</v>
-      </c>
-      <c r="L4">
+        <v>7.5366159913255015E-2</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="7"/>
-        <v>6.0723440618086134E-2</v>
-      </c>
-      <c r="M4">
+        <v>7.5366159913255015E-2</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="8"/>
-        <v>6.0723440618086134E-2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="9"/>
-        <v>6.0723440618086134E-2</v>
+        <v>7.5366159913255015E-2</v>
       </c>
       <c r="O4">
         <v>0.5</v>
@@ -688,7 +688,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.08</v>
       </c>
@@ -697,46 +697,46 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>9.9202785645601727E-2</v>
+        <v>0.27251262309825336</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>0.19840557129120345</v>
+        <v>0.54502524619650672</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>0.29760835693680515</v>
+        <v>0.81753786929476002</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5">
+        <f t="shared" si="9"/>
+        <v>7.6816013494486466</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="3"/>
-        <v>21.101557982572075</v>
-      </c>
-      <c r="I5">
+        <v>26.711991702382445</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="4"/>
-        <v>33.163221356016493</v>
-      </c>
-      <c r="J5">
+        <v>78.749999999999986</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="5"/>
-        <v>78.749999999999986</v>
-      </c>
-      <c r="K5">
+        <v>4451.5624999999982</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="6"/>
-        <v>4451.5624999999982</v>
-      </c>
-      <c r="L5">
+        <v>7.8366800823265789E-2</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="7"/>
-        <v>6.3122134935590615E-2</v>
-      </c>
-      <c r="M5">
+        <v>7.8366800823265789E-2</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="8"/>
-        <v>6.3122134935590615E-2</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="9"/>
-        <v>6.3122134935590615E-2</v>
+        <v>7.8366800823265789E-2</v>
       </c>
       <c r="O5">
         <v>0.5</v>
@@ -745,7 +745,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.09</v>
       </c>
@@ -754,46 +754,46 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.1023423443752722</v>
+        <v>0.27985760224733625</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.20468468875054441</v>
+        <v>0.55971520449467249</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>0.30702703312581658</v>
+        <v>0.83957280674200874</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="H6">
+        <f t="shared" si="9"/>
+        <v>7.4799945276571753</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="3"/>
-        <v>20.454224945809639</v>
-      </c>
-      <c r="I6">
+        <v>25.8630949784866</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="4"/>
-        <v>32.114244220691518</v>
-      </c>
-      <c r="J6">
+        <v>73.888888888888886</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="5"/>
-        <v>73.888888888888886</v>
-      </c>
-      <c r="K6">
+        <v>3904.0123456790107</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="6"/>
-        <v>3904.0123456790107</v>
-      </c>
-      <c r="L6">
+        <v>8.0939011169181674E-2</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="7"/>
-        <v>6.518395136275941E-2</v>
-      </c>
-      <c r="M6">
+        <v>8.0939011169181674E-2</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="8"/>
-        <v>6.518395136275941E-2</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="9"/>
-        <v>6.518395136275941E-2</v>
+        <v>8.0939011169181674E-2</v>
       </c>
       <c r="O6">
         <v>0.5</v>
@@ -802,7 +802,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -811,46 +811,46 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.10512545144757326</v>
+        <v>0.28709142756020029</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.21025090289514653</v>
+        <v>0.57418285512040057</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>0.31537635434271982</v>
+        <v>0.8612742826806008</v>
       </c>
       <c r="G7">
         <v>0.1</v>
       </c>
       <c r="H7">
+        <f t="shared" si="9"/>
+        <v>7.2915215585612767</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="3"/>
-        <v>19.912716706641607</v>
-      </c>
-      <c r="I7">
+        <v>25.170095616843337</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="4"/>
-        <v>31.255138991228886</v>
-      </c>
-      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="K7">
+        <v>3499.9999999999986</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="6"/>
-        <v>3499.9999999999986</v>
-      </c>
-      <c r="L7">
+        <v>8.3167476405314716E-2</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="7"/>
-        <v>6.6975652673334288E-2</v>
-      </c>
-      <c r="M7">
+        <v>8.3167476405314716E-2</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="8"/>
-        <v>6.6975652673334288E-2</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="9"/>
-        <v>6.6975652673334288E-2</v>
+        <v>8.3167476405314716E-2</v>
       </c>
       <c r="O7">
         <v>0.5</v>
@@ -859,7 +859,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.11</v>
       </c>
@@ -868,46 +868,46 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.10761718629892296</v>
+        <v>0.29421171865260864</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.21523437259784592</v>
+        <v>0.58842343730521729</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>0.32285155889676886</v>
+        <v>0.88263515595782582</v>
       </c>
       <c r="G8">
         <v>0.1</v>
       </c>
       <c r="H8">
+        <f t="shared" si="9"/>
+        <v>7.1150576289758298</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>19.451663858956362</v>
-      </c>
-      <c r="I8">
+        <v>24.593948820242687</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="4"/>
-        <v>30.538590347147629</v>
-      </c>
-      <c r="J8">
+        <v>66.818181818181827</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="5"/>
-        <v>66.818181818181827</v>
-      </c>
-      <c r="K8">
+        <v>3191.9421487603308</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="6"/>
-        <v>3191.9421487603308</v>
-      </c>
-      <c r="L8">
+        <v>8.5115787978316079E-2</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="7"/>
-        <v>6.8547150000617341E-2</v>
-      </c>
-      <c r="M8">
+        <v>8.5115787978316079E-2</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="8"/>
-        <v>6.8547150000617341E-2</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="9"/>
-        <v>6.8547150000617341E-2</v>
+        <v>8.5115787978316079E-2</v>
       </c>
       <c r="O8">
         <v>0.5</v>
@@ -916,7 +916,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.12</v>
       </c>
@@ -925,46 +925,46 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.10986636771473428</v>
+        <v>0.3012178954195503</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.21973273542946856</v>
+        <v>0.60243579083910059</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>0.32959910314420282</v>
+        <v>0.90365368625865083</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
       <c r="H9">
+        <f t="shared" si="9"/>
+        <v>6.9495649666419768</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>19.053449903510323</v>
-      </c>
-      <c r="I9">
+        <v>24.10764498607076</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="4"/>
-        <v>29.931856721132796</v>
-      </c>
-      <c r="J9">
+        <v>64.166666666666671</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="5"/>
-        <v>64.166666666666671</v>
-      </c>
-      <c r="K9">
+        <v>2950.6944444444448</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="6"/>
-        <v>2950.6944444444448</v>
-      </c>
-      <c r="L9">
+        <v>8.6832759257191985E-2</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="7"/>
-        <v>6.9936634831456235E-2</v>
-      </c>
-      <c r="M9">
+        <v>8.6832759257191985E-2</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="8"/>
-        <v>6.9936634831456235E-2</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="9"/>
-        <v>6.9936634831456235E-2</v>
+        <v>8.6832759257191985E-2</v>
       </c>
       <c r="O9">
         <v>0.5</v>
@@ -973,7 +973,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.13</v>
       </c>
@@ -982,46 +982,46 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.11191057274158278</v>
+        <v>0.30811067325299596</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.22382114548316556</v>
+        <v>0.61622134650599192</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.33573171822474829</v>
+        <v>0.92433201975898793</v>
       </c>
       <c r="G10">
         <v>0.1</v>
       </c>
       <c r="H10">
+        <f t="shared" si="9"/>
+        <v>6.794095482743808</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>18.705411669790433</v>
-      </c>
-      <c r="I10">
+        <v>23.691889987646505</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="4"/>
-        <v>29.41153419144328</v>
-      </c>
-      <c r="J10">
+        <v>61.92307692307692</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="5"/>
-        <v>61.92307692307692</v>
-      </c>
-      <c r="K10">
+        <v>2757.5443786982246</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="6"/>
-        <v>2757.5443786982246</v>
-      </c>
-      <c r="L10">
+        <v>8.8356536115305515E-2</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="7"/>
-        <v>7.1173891158059638E-2</v>
-      </c>
-      <c r="M10">
+        <v>8.8356536115305515E-2</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="8"/>
-        <v>7.1173891158059638E-2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="9"/>
-        <v>7.1173891158059638E-2</v>
+        <v>8.8356536115305515E-2</v>
       </c>
       <c r="O10">
         <v>0.5</v>
@@ -1030,7 +1030,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.14000000000000001</v>
       </c>
@@ -1039,46 +1039,46 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.11377935918968994</v>
+        <v>0.31489168339250423</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0.22755871837937988</v>
+        <v>0.62978336678500846</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.34133807756906986</v>
+        <v>0.94467505017751263</v>
       </c>
       <c r="G11">
         <v>0.1</v>
       </c>
       <c r="H11">
+        <f t="shared" si="9"/>
+        <v>6.6477885690110412</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>18.398181781313983</v>
-      </c>
-      <c r="I11">
+        <v>23.332528948695767</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="4"/>
-        <v>28.960436929399496</v>
-      </c>
-      <c r="J11">
+        <v>59.999999999999986</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="5"/>
-        <v>59.999999999999986</v>
-      </c>
-      <c r="K11">
+        <v>2599.9999999999991</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="6"/>
-        <v>2599.9999999999991</v>
-      </c>
-      <c r="L11">
+        <v>8.9717378597760009E-2</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="7"/>
-        <v>7.2282519025404057E-2</v>
-      </c>
-      <c r="M11">
+        <v>8.9717378597760009E-2</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="8"/>
-        <v>7.2282519025404057E-2</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="9"/>
-        <v>7.2282519025404057E-2</v>
+        <v>8.9717378597760009E-2</v>
       </c>
       <c r="O11">
         <v>0.5</v>
@@ -1087,7 +1087,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.15</v>
       </c>
@@ -1096,46 +1096,46 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.11549640930150497</v>
+        <v>0.32156318956704127</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.23099281860300994</v>
+        <v>0.64312637913408255</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>0.34648922790451492</v>
+        <v>0.96468956870112377</v>
       </c>
       <c r="G12">
         <v>0.1</v>
       </c>
       <c r="H12">
+        <f t="shared" si="9"/>
+        <v>6.5098661826057791</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>18.124661588990683</v>
-      </c>
-      <c r="I12">
+        <v>23.01894094619832</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="4"/>
-        <v>28.565654942335311</v>
-      </c>
-      <c r="J12">
+        <v>58.333333333333329</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="5"/>
-        <v>58.333333333333329</v>
-      </c>
-      <c r="K12">
+        <v>2469.4444444444443</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="6"/>
-        <v>2469.4444444444443</v>
-      </c>
-      <c r="L12">
+        <v>9.0939602226967634E-2</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="7"/>
-        <v>7.3281475168662749E-2</v>
-      </c>
-      <c r="M12">
+        <v>9.0939602226967634E-2</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="8"/>
-        <v>7.3281475168662749E-2</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="9"/>
-        <v>7.3281475168662749E-2</v>
+        <v>9.0939602226967634E-2</v>
       </c>
       <c r="O12">
         <v>0.5</v>
@@ -1144,7 +1144,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.16</v>
       </c>
@@ -1153,46 +1153,46 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.11708099983252843</v>
+        <v>0.32812787780388658</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.23416199966505685</v>
+        <v>0.65625575560777316</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>0.35124299949758525</v>
+        <v>0.9843836334116598</v>
       </c>
       <c r="G13">
         <v>0.1</v>
       </c>
       <c r="H13">
+        <f t="shared" si="9"/>
+        <v>6.3796265874869178</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>17.879359898938496</v>
-      </c>
-      <c r="I13">
+        <v>22.743001442294947</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="4"/>
-        <v>28.217299473979256</v>
-      </c>
-      <c r="J13">
+        <v>56.875</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="5"/>
-        <v>56.875</v>
-      </c>
-      <c r="K13">
+        <v>2359.7656249999991</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="6"/>
-        <v>2359.7656249999991</v>
-      </c>
-      <c r="L13">
+        <v>9.2042967092302114E-2</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="7"/>
-        <v>7.4186168497935551E-2</v>
-      </c>
-      <c r="M13">
+        <v>9.2042967092302114E-2</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="8"/>
-        <v>7.4186168497935551E-2</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="9"/>
-        <v>7.4186168497935551E-2</v>
+        <v>9.2042967092302114E-2</v>
       </c>
       <c r="O13">
         <v>0.5</v>
@@ -1201,7 +1201,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.17</v>
       </c>
@@ -1210,46 +1210,46 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.11854903727611141</v>
+        <v>0.33458870138430824</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>0.23709807455222282</v>
+        <v>0.66917740276861648</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0.35564711182833425</v>
+        <v>1.0037661041529244</v>
       </c>
       <c r="G14">
         <v>0.1</v>
       </c>
       <c r="H14">
+        <f t="shared" si="9"/>
+        <v>6.2564376043557228</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="3"/>
-        <v>17.657953041472375</v>
-      </c>
-      <c r="I14">
+        <v>22.498390536616117</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="4"/>
-        <v>27.907666883058226</v>
-      </c>
-      <c r="J14">
+        <v>55.588235294117645</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="5"/>
-        <v>55.588235294117645</v>
-      </c>
-      <c r="K14">
+        <v>2266.5224913494803</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="6"/>
-        <v>2266.5224913494803</v>
-      </c>
-      <c r="L14">
+        <v>9.304369261109742E-2</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="7"/>
-        <v>7.500925613398815E-2</v>
-      </c>
-      <c r="M14">
+        <v>9.304369261109742E-2</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="8"/>
-        <v>7.500925613398815E-2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="9"/>
-        <v>7.500925613398815E-2</v>
+        <v>9.304369261109742E-2</v>
       </c>
       <c r="O14">
         <v>0.5</v>
@@ -1258,7 +1258,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.18</v>
       </c>
@@ -1267,46 +1267,46 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.11991380404854653</v>
+        <v>0.34094876714866496</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.23982760809709305</v>
+        <v>0.68189753429732991</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>0.35974141214563959</v>
+        <v>1.022846301445995</v>
       </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
+        <f t="shared" si="9"/>
+        <v>6.1397298803563958</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="3"/>
-        <v>17.456983788837668</v>
-      </c>
-      <c r="I15">
+        <v>22.280119321858642</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="4"/>
-        <v>27.630666242352152</v>
-      </c>
-      <c r="J15">
+        <v>54.444444444444436</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="5"/>
-        <v>54.444444444444436</v>
-      </c>
-      <c r="K15">
+        <v>2186.4197530864185</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="6"/>
-        <v>2186.4197530864185</v>
-      </c>
-      <c r="L15">
+        <v>9.3955211957935977E-2</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="7"/>
-        <v>7.5761232645367133E-2</v>
-      </c>
-      <c r="M15">
+        <v>9.3955211957935977E-2</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="8"/>
-        <v>7.5761232645367133E-2</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="9"/>
-        <v>7.5761232645367133E-2</v>
+        <v>9.3955211957935977E-2</v>
       </c>
       <c r="O15">
         <v>0.5</v>
@@ -1315,7 +1315,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.19</v>
       </c>
@@ -1324,46 +1324,46 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.12118650754762512</v>
+        <v>0.34721125270247594</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.24237301509525025</v>
+        <v>0.69442250540495187</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>0.36355952264287544</v>
+        <v>1.041633758107428</v>
       </c>
       <c r="G16">
         <v>0.1</v>
       </c>
       <c r="H16">
+        <f t="shared" si="9"/>
+        <v>6.0289904691744045</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="3"/>
-        <v>17.273650142204762</v>
-      </c>
-      <c r="I16">
+        <v>22.084197975892032</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="4"/>
-        <v>27.381418213750148</v>
-      </c>
-      <c r="J16">
+        <v>53.421052631578945</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="5"/>
-        <v>53.421052631578945</v>
-      </c>
-      <c r="K16">
+        <v>2116.9667590027693</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="6"/>
-        <v>2116.9667590027693</v>
-      </c>
-      <c r="L16">
+        <v>9.4788741507321098E-2</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="7"/>
-        <v>7.6450873252508253E-2</v>
-      </c>
-      <c r="M16">
+        <v>9.4788741507321098E-2</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="8"/>
-        <v>7.6450873252508253E-2</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="9"/>
-        <v>7.6450873252508253E-2</v>
+        <v>9.4788741507321098E-2</v>
       </c>
       <c r="O16">
         <v>0.5</v>
@@ -1372,7 +1372,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.2</v>
       </c>
@@ -1381,46 +1381,46 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.12237669165328112</v>
+        <v>0.35337934666395243</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.24475338330656224</v>
+        <v>0.70675869332790486</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>0.36713007495984334</v>
+        <v>1.0601380399918574</v>
       </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="H17">
+        <f t="shared" si="9"/>
+        <v>5.9237568723109257</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="3"/>
-        <v>17.105653903965525</v>
-      </c>
-      <c r="I17">
+        <v>21.907398396837291</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="4"/>
-        <v>27.155968119692385</v>
-      </c>
-      <c r="J17">
+        <v>52.5</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="5"/>
-        <v>52.5</v>
-      </c>
-      <c r="K17">
+        <v>2056.2499999999991</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="6"/>
-        <v>2056.2499999999991</v>
-      </c>
-      <c r="L17">
+        <v>9.5553716393615332E-2</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="7"/>
-        <v>7.7085571912103357E-2</v>
-      </c>
-      <c r="M17">
+        <v>9.5553716393615332E-2</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="8"/>
-        <v>7.7085571912103357E-2</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="9"/>
-        <v>7.7085571912103357E-2</v>
+        <v>9.5553716393615332E-2</v>
       </c>
       <c r="O17">
         <v>0.5</v>
@@ -1429,7 +1429,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.21</v>
       </c>
@@ -1438,46 +1438,46 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.12349255024515331</v>
+        <v>0.3594562060639051</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>0.24698510049030661</v>
+        <v>0.71891241212781021</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>0.37047765073545991</v>
+        <v>1.0783686181917151</v>
       </c>
       <c r="G18">
         <v>0.1</v>
       </c>
       <c r="H18">
+        <f t="shared" si="9"/>
+        <v>5.8236116055850626</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="3"/>
-        <v>16.951089998366037</v>
-      </c>
-      <c r="I18">
+        <v>21.747081364341629</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="4"/>
-        <v>26.951076933348972</v>
-      </c>
-      <c r="J18">
+        <v>51.666666666666664</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="5"/>
-        <v>51.666666666666664</v>
-      </c>
-      <c r="K18">
+        <v>2002.7777777777774</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="6"/>
-        <v>2002.7777777777774</v>
-      </c>
-      <c r="L18">
+        <v>9.6258127620092573E-2</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="7"/>
-        <v>7.7671602456192215E-2</v>
-      </c>
-      <c r="M18">
+        <v>9.6258127620092573E-2</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="8"/>
-        <v>7.7671602456192215E-2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="9"/>
-        <v>7.7671602456192215E-2</v>
+        <v>9.6258127620092573E-2</v>
       </c>
       <c r="O18">
         <v>0.5</v>
@@ -1486,7 +1486,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.22</v>
       </c>
@@ -1495,46 +1495,46 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.12454116962125822</v>
+        <v>0.36544492649423482</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>0.24908233924251644</v>
+        <v>0.73088985298846965</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>0.37362350886377466</v>
+        <v>1.0963347794827045</v>
       </c>
       <c r="G19">
         <v>0.1</v>
       </c>
       <c r="H19">
+        <f t="shared" si="9"/>
+        <v>5.7281773027059861</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="3"/>
-        <v>16.808364171457225</v>
-      </c>
-      <c r="I19">
+        <v>21.601068645021844</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="4"/>
-        <v>26.764066535488151</v>
-      </c>
-      <c r="J19">
+        <v>50.909090909090907</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="5"/>
-        <v>50.909090909090907</v>
-      </c>
-      <c r="K19">
+        <v>1955.3719008264459</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="6"/>
-        <v>1955.3719008264459</v>
-      </c>
-      <c r="L19">
+        <v>9.6908785751938273E-2</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="7"/>
-        <v>7.8214322571558845E-2</v>
-      </c>
-      <c r="M19">
+        <v>9.6908785751938273E-2</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="8"/>
-        <v>7.8214322571558845E-2</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="9"/>
-        <v>7.8214322571558845E-2</v>
+        <v>9.6908785751938273E-2</v>
       </c>
       <c r="O19">
         <v>0.5</v>
@@ -1543,7 +1543,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.23</v>
       </c>
@@ -1552,46 +1552,46 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.12552871845288749</v>
+        <v>0.37134852171455041</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0.25105743690577498</v>
+        <v>0.74269704342910081</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>0.37658615535866241</v>
+        <v>1.1140455651436514</v>
       </c>
       <c r="G20">
         <v>0.1</v>
       </c>
       <c r="H20">
+        <f t="shared" si="9"/>
+        <v>5.6371123376719527</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="3"/>
-        <v>16.676130841875743</v>
-      </c>
-      <c r="I20">
+        <v>21.46754697649731</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="4"/>
-        <v>26.592703464220119</v>
-      </c>
-      <c r="J20">
+        <v>50.217391304347821</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="5"/>
-        <v>50.217391304347821</v>
-      </c>
-      <c r="K20">
+        <v>1913.0907372400748</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="6"/>
-        <v>1913.0907372400748</v>
-      </c>
-      <c r="L20">
+        <v>9.7511529175881947E-2</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="7"/>
-        <v>7.8718334754864852E-2</v>
-      </c>
-      <c r="M20">
+        <v>9.7511529175881947E-2</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="8"/>
-        <v>7.8718334754864852E-2</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="9"/>
-        <v>7.8718334754864852E-2</v>
+        <v>9.7511529175881947E-2</v>
       </c>
       <c r="O20">
         <v>0.5</v>
@@ -1600,7 +1600,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.24</v>
       </c>
@@ -1609,46 +1609,46 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.12646059843202248</v>
+        <v>0.37716991025841395</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0.25292119686404496</v>
+        <v>0.75433982051682791</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>0.37938179529606741</v>
+        <v>1.131509730775242</v>
       </c>
       <c r="G21">
         <v>0.1</v>
       </c>
       <c r="H21">
+        <f t="shared" si="9"/>
+        <v>5.5501069316454963</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="3"/>
-        <v>16.553245511158813</v>
-      </c>
-      <c r="I21">
+        <v>21.344995035073225</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="4"/>
-        <v>26.435110422453331</v>
-      </c>
-      <c r="J21">
+        <v>49.583333333333329</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="5"/>
-        <v>49.583333333333329</v>
-      </c>
-      <c r="K21">
+        <v>1875.1736111111111</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="6"/>
-        <v>1875.1736111111111</v>
-      </c>
-      <c r="L21">
+        <v>9.807139003282285E-2</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="7"/>
-        <v>7.9187614497547465E-2</v>
-      </c>
-      <c r="M21">
+        <v>9.807139003282285E-2</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="8"/>
-        <v>7.9187614497547465E-2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="9"/>
-        <v>7.9187614497547465E-2</v>
+        <v>9.807139003282285E-2</v>
       </c>
       <c r="O21">
         <v>0.5</v>
@@ -1657,7 +1657,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.25</v>
       </c>
@@ -1666,46 +1666,46 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.12734156505648542</v>
+        <v>0.3829119072016624</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0.25468313011297083</v>
+        <v>0.76582381440332481</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>0.38202469516945631</v>
+        <v>1.1487357216049874</v>
       </c>
       <c r="G22">
         <v>0.1</v>
       </c>
       <c r="H22">
+        <f t="shared" si="9"/>
+        <v>5.4668797025182849</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="3"/>
-        <v>16.438727860811078</v>
-      </c>
-      <c r="I22">
+        <v>21.232127220751895</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="4"/>
-        <v>26.289698102454384</v>
-      </c>
-      <c r="J22">
+        <v>48.999999999999993</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="5"/>
-        <v>48.999999999999993</v>
-      </c>
-      <c r="K22">
+        <v>1840.9999999999991</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="6"/>
-        <v>1840.9999999999991</v>
-      </c>
-      <c r="L22">
+        <v>9.8592727500584468E-2</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="7"/>
-        <v>7.962561324117684E-2</v>
-      </c>
-      <c r="M22">
+        <v>9.8592727500584468E-2</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="8"/>
-        <v>7.962561324117684E-2</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="9"/>
-        <v>7.962561324117684E-2</v>
+        <v>9.8592727500584468E-2</v>
       </c>
       <c r="O22">
         <v>0.5</v>
@@ -1714,7 +1714,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.26</v>
       </c>
@@ -1723,46 +1723,46 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.12817582543872133</v>
+        <v>0.38857721971867198</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.25635165087744266</v>
+        <v>0.77715443943734397</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>0.38452747631616391</v>
+        <v>1.1657316591560158</v>
       </c>
       <c r="G23">
         <v>0.1</v>
       </c>
       <c r="H23">
+        <f t="shared" si="9"/>
+        <v>5.3871746131924478</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="3"/>
-        <v>16.331732806621329</v>
-      </c>
-      <c r="I23">
+        <v>21.127849914145713</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="4"/>
-        <v>26.155112084418853</v>
-      </c>
-      <c r="J23">
+        <v>48.461538461538453</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="5"/>
-        <v>48.461538461538453</v>
-      </c>
-      <c r="K23">
+        <v>1810.0591715976327</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="6"/>
-        <v>1810.0591715976327</v>
-      </c>
-      <c r="L23">
+        <v>9.9079335656004713E-2</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="7"/>
-        <v>8.0035341717398928E-2</v>
-      </c>
-      <c r="M23">
+        <v>9.9079335656004713E-2</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="8"/>
-        <v>8.0035341717398928E-2</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="9"/>
-        <v>8.0035341717398928E-2</v>
+        <v>9.9079335656004713E-2</v>
       </c>
       <c r="O23">
         <v>0.5</v>
@@ -1771,7 +1771,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.27</v>
       </c>
@@ -1780,46 +1780,46 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.12896711822963461</v>
+        <v>0.39416844539851381</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>0.25793423645926922</v>
+        <v>0.78833689079702762</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>0.38690135468890385</v>
+        <v>1.1825053361955413</v>
       </c>
       <c r="G24">
         <v>0.1</v>
       </c>
       <c r="H24">
+        <f t="shared" si="9"/>
+        <v>5.3107582754802278</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="3"/>
-        <v>16.231527555775983</v>
-      </c>
-      <c r="I24">
+        <v>21.031227097011836</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="4"/>
-        <v>26.03019105845015</v>
-      </c>
-      <c r="J24">
+        <v>47.962962962962955</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="5"/>
-        <v>47.962962962962955</v>
-      </c>
-      <c r="K24">
+        <v>1781.9272976680377</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="6"/>
-        <v>1781.9272976680377</v>
-      </c>
-      <c r="L24">
+        <v>9.9534531374574853E-2</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="7"/>
-        <v>8.041943789935331E-2</v>
-      </c>
-      <c r="M24">
+        <v>9.9534531374574853E-2</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="8"/>
-        <v>8.041943789935331E-2</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="9"/>
-        <v>8.041943789935331E-2</v>
+        <v>9.9534531374574853E-2</v>
       </c>
       <c r="O24">
         <v>0.5</v>
@@ -1828,7 +1828,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.28000000000000003</v>
       </c>
@@ -1837,46 +1837,46 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.1297187794713541</v>
+        <v>0.39968807255178052</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0.2594375589427082</v>
+        <v>0.79937614510356103</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>0.38915633841406227</v>
+        <v>1.1990642176553414</v>
       </c>
       <c r="G25">
         <v>0.1</v>
       </c>
       <c r="H25">
+        <f t="shared" si="9"/>
+        <v>5.2374175690772891</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="3"/>
-        <v>16.13747324685248</v>
-      </c>
-      <c r="I25">
+        <v>20.941453082513654</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="4"/>
-        <v>25.913933649817054</v>
-      </c>
-      <c r="J25">
+        <v>47.5</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="5"/>
-        <v>47.5</v>
-      </c>
-      <c r="K25">
+        <v>1756.2499999999991</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="6"/>
-        <v>1756.2499999999991</v>
-      </c>
-      <c r="L25">
+        <v>9.996122642899552E-2</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="7"/>
-        <v>8.0780222779806024E-2</v>
-      </c>
-      <c r="M25">
+        <v>9.996122642899552E-2</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="8"/>
-        <v>8.0780222779806024E-2</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="9"/>
-        <v>8.0780222779806024E-2</v>
+        <v>9.996122642899552E-2</v>
       </c>
       <c r="O25">
         <v>0.5</v>
@@ -1885,7 +1885,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.28999999999999998</v>
       </c>
@@ -1894,46 +1894,46 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.13043379727032778</v>
+        <v>0.40513848193266172</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0.26086759454065556</v>
+        <v>0.81027696386532344</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>0.39130139181098339</v>
+        <v>1.2154154457979851</v>
       </c>
       <c r="G26">
         <v>0.1</v>
       </c>
       <c r="H26">
+        <f t="shared" si="9"/>
+        <v>5.1669575384380977</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="3"/>
-        <v>16.049010127297297</v>
-      </c>
-      <c r="I26">
+        <v>20.857830700245785</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="4"/>
-        <v>25.805471849632678</v>
-      </c>
-      <c r="J26">
+        <v>47.068965517241374</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="5"/>
-        <v>47.068965517241374</v>
-      </c>
-      <c r="K26">
+        <v>1732.7288941736026</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="6"/>
-        <v>1732.7288941736026</v>
-      </c>
-      <c r="L26">
+        <v>0.10036198698787338</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="7"/>
-        <v>8.1119746444904883E-2</v>
-      </c>
-      <c r="M26">
+        <v>0.10036198698787338</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="8"/>
-        <v>8.1119746444904883E-2</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="9"/>
-        <v>8.1119746444904883E-2</v>
+        <v>0.10036198698787338</v>
       </c>
       <c r="O26">
         <v>0.5</v>
@@ -1942,7 +1942,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.3</v>
       </c>
@@ -1951,46 +1951,46 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.13111485750728299</v>
+        <v>0.41052194944624393</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>0.26222971501456599</v>
+        <v>0.82104389889248786</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>0.39334457252184896</v>
+        <v>1.2315658483387319</v>
       </c>
       <c r="G27">
         <v>0.1</v>
       </c>
       <c r="H27">
+        <f t="shared" si="9"/>
+        <v>5.0991995340493874</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="3"/>
-        <v>15.965645489238744</v>
-      </c>
-      <c r="I27">
+        <v>20.779753706720165</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="4"/>
-        <v>25.704049566400048</v>
-      </c>
-      <c r="J27">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="5"/>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="K27">
+        <v>1711.1111111111109</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="6"/>
-        <v>1711.1111111111109</v>
-      </c>
-      <c r="L27">
+        <v>0.10073908299771379</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="7"/>
-        <v>8.143982635598819E-2</v>
-      </c>
-      <c r="M27">
+        <v>0.10073908299771379</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="8"/>
-        <v>8.143982635598819E-2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="9"/>
-        <v>8.143982635598819E-2</v>
+        <v>0.10073908299771379</v>
       </c>
       <c r="O27">
         <v>0.5</v>
@@ -1999,7 +1999,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.31</v>
       </c>
@@ -2008,46 +2008,46 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.13176438230081888</v>
+        <v>0.41584064952025263</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0.26352876460163777</v>
+        <v>0.83168129904050525</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>0.39529314690245665</v>
+        <v>1.2475219485607578</v>
       </c>
       <c r="G28">
         <v>0.1</v>
       </c>
       <c r="H28">
+        <f t="shared" si="9"/>
+        <v>5.033979568251377</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="3"/>
-        <v>15.886943776310057</v>
-      </c>
-      <c r="I28">
+        <v>20.706692498382175</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="4"/>
-        <v>25.609005183345587</v>
-      </c>
-      <c r="J28">
+        <v>46.29032258064516</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="5"/>
-        <v>46.29032258064516</v>
-      </c>
-      <c r="K28">
+        <v>1691.1810613943808</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="6"/>
-        <v>1691.1810613943808</v>
-      </c>
-      <c r="L28">
+        <v>0.10109452938932119</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="7"/>
-        <v>8.174207933288638E-2</v>
-      </c>
-      <c r="M28">
+        <v>0.10109452938932119</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="8"/>
-        <v>8.174207933288638E-2</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="9"/>
-        <v>8.174207933288638E-2</v>
+        <v>0.10109452938932119</v>
       </c>
       <c r="O28">
         <v>0.5</v>
@@ -2056,7 +2056,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.32</v>
       </c>
@@ -2065,46 +2065,46 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.13238456256707914</v>
+        <v>0.42109665890261444</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>0.26476912513415829</v>
+        <v>0.84219331780522888</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>0.39715368770123749</v>
+        <v>1.2632899767078434</v>
       </c>
       <c r="G29">
         <v>0.1</v>
       </c>
       <c r="H29">
+        <f t="shared" si="9"/>
+        <v>4.9711468592237189</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="3"/>
-        <v>15.812518414091091</v>
-      </c>
-      <c r="I29">
+        <v>20.638182427336719</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="4"/>
-        <v>25.519757275570434</v>
-      </c>
-      <c r="J29">
+        <v>45.9375</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="5"/>
-        <v>45.9375</v>
-      </c>
-      <c r="K29">
+        <v>1672.7539062499995</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="6"/>
-        <v>1672.7539062499995</v>
-      </c>
-      <c r="L29">
+        <v>0.10143012063700757</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="7"/>
-        <v>8.2027948413805674E-2</v>
-      </c>
-      <c r="M29">
+        <v>0.10143012063700757</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="8"/>
-        <v>8.2027948413805674E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="9"/>
-        <v>8.2027948413805674E-2</v>
+        <v>0.10143012063700757</v>
       </c>
       <c r="O29">
         <v>0.5</v>
@@ -2113,7 +2113,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.33</v>
       </c>
@@ -2122,46 +2122,46 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.13297738573461726</v>
+        <v>0.42629196070815695</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>0.26595477146923452</v>
+        <v>0.85258392141631389</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>0.39893215720385178</v>
+        <v>1.278875882124471</v>
       </c>
       <c r="G30">
         <v>0.1</v>
       </c>
       <c r="H30">
+        <f t="shared" si="9"/>
+        <v>4.9105625399453565</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="3"/>
-        <v>15.742025020036078</v>
-      </c>
-      <c r="I30">
+        <v>20.573814184218246</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="4"/>
-        <v>25.435792839215122</v>
-      </c>
-      <c r="J30">
+        <v>45.606060606060602</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="5"/>
-        <v>45.606060606060602</v>
-      </c>
-      <c r="K30">
+        <v>1655.6703397612487</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="6"/>
-        <v>1655.6703397612487</v>
-      </c>
-      <c r="L30">
+        <v>0.10174745988223646</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="7"/>
-        <v>8.2298725522955946E-2</v>
-      </c>
-      <c r="M30">
+        <v>0.10174745988223646</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="8"/>
-        <v>8.2298725522955946E-2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="9"/>
-        <v>8.2298725522955946E-2</v>
+        <v>0.10174745988223646</v>
       </c>
       <c r="O30">
         <v>0.5</v>
@@ -2170,7 +2170,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.34</v>
       </c>
@@ -2179,46 +2179,46 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.13354465945697092</v>
+        <v>0.43142844858440998</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>0.26708931891394183</v>
+        <v>0.86285689716881997</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>0.4006339783709128</v>
+        <v>1.29428534575323</v>
       </c>
       <c r="G31">
         <v>0.1</v>
       </c>
       <c r="H31">
+        <f t="shared" si="9"/>
+        <v>4.8520985118202464</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="3"/>
-        <v>15.675155725772926</v>
-      </c>
-      <c r="I31">
+        <v>20.513225834793484</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="4"/>
-        <v>25.356657532254964</v>
-      </c>
-      <c r="J31">
+        <v>45.294117647058819</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="5"/>
-        <v>45.294117647058819</v>
-      </c>
-      <c r="K31">
+        <v>1639.7923875432523</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="6"/>
-        <v>1639.7923875432523</v>
-      </c>
-      <c r="L31">
+        <v>0.10204798358836027</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="7"/>
-        <v>8.2555570688703991E-2</v>
-      </c>
-      <c r="M31">
+        <v>0.10204798358836027</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="8"/>
-        <v>8.2555570688703991E-2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="9"/>
-        <v>8.2555570688703991E-2</v>
+        <v>0.10204798358836027</v>
       </c>
       <c r="O31">
         <v>0.5</v>
@@ -2227,7 +2227,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.35</v>
       </c>
@@ -2236,46 +2236,46 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.13408803199835509</v>
+        <v>0.4365079309017062</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0.26817606399671018</v>
+        <v>0.8730158618034124</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>0.4022640959950653</v>
+        <v>1.3095237927051184</v>
       </c>
       <c r="G32">
         <v>0.1</v>
       </c>
       <c r="H32">
+        <f t="shared" si="9"/>
+        <v>4.7956364252284684</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="3"/>
-        <v>15.611634402681165</v>
-      </c>
-      <c r="I32">
+        <v>20.456096188594294</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="4"/>
-        <v>25.281947537265044</v>
-      </c>
-      <c r="J32">
+        <v>45</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="K32">
+        <v>1624.9999999999995</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="6"/>
-        <v>1624.9999999999995</v>
-      </c>
-      <c r="L32">
+        <v>0.10233298250232678</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="7"/>
-        <v>8.2799528408474279E-2</v>
-      </c>
-      <c r="M32">
+        <v>0.10233298250232678</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="8"/>
-        <v>8.2799528408474279E-2</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="9"/>
-        <v>8.2799528408474279E-2</v>
+        <v>0.10233298250232678</v>
       </c>
       <c r="O32">
         <v>0.5</v>
@@ -2284,7 +2284,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.36</v>
       </c>
@@ -2293,46 +2293,46 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.13460900983783364</v>
+        <v>0.44153213489929405</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>0.26921801967566727</v>
+        <v>0.8830642697985881</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>0.40382702951350086</v>
+        <v>1.3245964046978822</v>
       </c>
       <c r="G33">
         <v>0.1</v>
       </c>
       <c r="H33">
+        <f t="shared" si="9"/>
+        <v>4.7410667715290691</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="3"/>
-        <v>15.551212625776071</v>
-      </c>
-      <c r="I33">
+        <v>20.402139247341271</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="4"/>
-        <v>25.211302740396082</v>
-      </c>
-      <c r="J33">
+        <v>44.722222222222221</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="5"/>
-        <v>44.722222222222221</v>
-      </c>
-      <c r="K33">
+        <v>1611.1882716049379</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="6"/>
-        <v>1611.1882716049379</v>
-      </c>
-      <c r="L33">
+        <v>0.1026036195496572</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="7"/>
-        <v>8.3031541641804346E-2</v>
-      </c>
-      <c r="M33">
+        <v>0.1026036195496572</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="8"/>
-        <v>8.3031541641804346E-2</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="9"/>
-        <v>8.3031541641804346E-2</v>
+        <v>0.1026036195496572</v>
       </c>
       <c r="O33">
         <v>0.5</v>
@@ -2341,7 +2341,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.37</v>
       </c>
@@ -2350,46 +2350,46 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.13510897293530263</v>
+        <v>0.44650271073920406</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>0.27021794587060527</v>
+        <v>0.89300542147840811</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>0.40532691880590788</v>
+        <v>1.3395081322176123</v>
       </c>
       <c r="G34">
         <v>0.1</v>
       </c>
       <c r="H34">
+        <f t="shared" si="9"/>
+        <v>4.688288073028116</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="3"/>
-        <v>15.493666244770678</v>
-      </c>
-      <c r="I34">
+        <v>20.351099533971119</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="4"/>
-        <v>25.144400984916068</v>
-      </c>
-      <c r="J34">
+        <v>44.459459459459453</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="5"/>
-        <v>44.459459459459453</v>
-      </c>
-      <c r="K34">
+        <v>1598.26515704894</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="6"/>
-        <v>1598.26515704894</v>
-      </c>
-      <c r="L34">
+        <v>0.10286094517099836</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="7"/>
-        <v>8.325246382242743E-2</v>
-      </c>
-      <c r="M34">
+        <v>0.10286094517099836</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="8"/>
-        <v>8.325246382242743E-2</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="9"/>
-        <v>8.325246382242743E-2</v>
+        <v>0.10286094517099836</v>
       </c>
       <c r="O34">
         <v>0.5</v>
@@ -2398,7 +2398,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.38</v>
       </c>
@@ -2407,46 +2407,46 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.13558918802196218</v>
+        <v>0.45142123543463375</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>0.27117837604392436</v>
+        <v>0.9028424708692675</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>0.4067675640658866</v>
+        <v>1.3542637063039014</v>
       </c>
       <c r="G35">
         <v>0.1</v>
       </c>
       <c r="H35">
+        <f t="shared" si="9"/>
+        <v>4.6372061591605167</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="3"/>
-        <v>15.438792457362187</v>
-      </c>
-      <c r="I35">
+        <v>20.302748143917327</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="4"/>
-        <v>25.080953207051078</v>
-      </c>
-      <c r="J35">
+        <v>44.210526315789465</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="5"/>
-        <v>44.210526315789465</v>
-      </c>
-      <c r="K35">
+        <v>1586.1495844875344</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="6"/>
-        <v>1586.1495844875344</v>
-      </c>
-      <c r="L35">
+        <v>0.10310591051490205</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="7"/>
-        <v>8.3463069208423418E-2</v>
-      </c>
-      <c r="M35">
+        <v>0.10310591051490205</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="8"/>
-        <v>8.3463069208423418E-2</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="9"/>
-        <v>8.3463069208423418E-2</v>
+        <v>0.10310591051490205</v>
       </c>
       <c r="O35">
         <v>0.5</v>
@@ -2455,7 +2455,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.39</v>
       </c>
@@ -2464,46 +2464,46 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.13605082021373374</v>
+        <v>0.4562892166309101</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>0.27210164042746748</v>
+        <v>0.9125784332618202</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>0.40815246064120125</v>
+        <v>1.3688676498927304</v>
       </c>
       <c r="G36">
         <v>0.1</v>
       </c>
       <c r="H36">
+        <f t="shared" si="9"/>
+        <v>4.5877335186437671</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="3"/>
-        <v>15.386407300189289</v>
-      </c>
-      <c r="I36">
+        <v>20.256879391959018</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="4"/>
-        <v>25.020699300171543</v>
-      </c>
-      <c r="J36">
+        <v>43.974358974358964</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="5"/>
-        <v>43.974358974358964</v>
-      </c>
-      <c r="K36">
+        <v>1574.7698882314262</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="6"/>
-        <v>1574.7698882314262</v>
-      </c>
-      <c r="L36">
+        <v>0.10333937882674483</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="7"/>
-        <v>8.3664061832155967E-2</v>
-      </c>
-      <c r="M36">
+        <v>0.10333937882674483</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="8"/>
-        <v>8.3664061832155967E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="9"/>
-        <v>8.3664061832155967E-2</v>
+        <v>0.10333937882674483</v>
       </c>
       <c r="O36">
         <v>0.5</v>
@@ -2512,7 +2512,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.4</v>
       </c>
@@ -2521,46 +2521,46 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.13649494319460634</v>
+        <v>0.46110809622551258</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>0.27298988638921268</v>
+        <v>0.92221619245102515</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>0.40948482958381893</v>
+        <v>1.3833242886765378</v>
       </c>
       <c r="G37">
         <v>0.1</v>
       </c>
       <c r="H37">
+        <f t="shared" si="9"/>
+        <v>4.5397887186729289</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="3"/>
-        <v>15.336343488921667</v>
-      </c>
-      <c r="I37">
+        <v>20.213307952678356</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="4"/>
-        <v>24.963404583305742</v>
-      </c>
-      <c r="J37">
+        <v>43.75</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="5"/>
-        <v>43.75</v>
-      </c>
-      <c r="K37">
+        <v>1564.0624999999995</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="6"/>
-        <v>1564.0624999999995</v>
-      </c>
-      <c r="L37">
+        <v>0.10356213531372815</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="7"/>
-        <v>8.3856083265711631E-2</v>
-      </c>
-      <c r="M37">
+        <v>0.10356213531372815</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="8"/>
-        <v>8.3856083265711631E-2</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="9"/>
-        <v>8.3856083265711631E-2</v>
+        <v>0.10356213531372815</v>
       </c>
       <c r="O37">
         <v>0.5</v>
@@ -2569,7 +2569,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.41</v>
       </c>
@@ -2578,46 +2578,46 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.13692254817537175</v>
+        <v>0.4658792538198927</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>0.2738450963507435</v>
+        <v>0.9317585076397854</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>0.41076764452611519</v>
+        <v>1.397637761459678</v>
       </c>
       <c r="G38">
         <v>0.1</v>
       </c>
       <c r="H38">
+        <f t="shared" si="9"/>
+        <v>4.4932958833633938</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="3"/>
-        <v>15.288448551601389</v>
-      </c>
-      <c r="I38">
+        <v>20.171866412000004</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="4"/>
-        <v>24.908856773507011</v>
-      </c>
-      <c r="J38">
+        <v>43.536585365853654</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="5"/>
-        <v>43.536585365853654</v>
-      </c>
-      <c r="K38">
+        <v>1553.9708506841162</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="6"/>
-        <v>1553.9708506841162</v>
-      </c>
-      <c r="L38">
+        <v>0.1037748957175343</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="7"/>
-        <v>8.403971938044931E-2</v>
-      </c>
-      <c r="M38">
+        <v>0.1037748957175343</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="8"/>
-        <v>8.403971938044931E-2</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="9"/>
-        <v>8.403971938044931E-2</v>
+        <v>0.1037748957175343</v>
       </c>
       <c r="O38">
         <v>0.5</v>
@@ -2626,7 +2626,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.42</v>
       </c>
@@ -2635,46 +2635,46 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.13733455179951329</v>
+        <v>0.47060401000042812</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>0.27466910359902658</v>
+        <v>0.94120802000085624</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>0.41200365539853989</v>
+        <v>1.4118120300012842</v>
       </c>
       <c r="G39">
         <v>0.1</v>
       </c>
       <c r="H39">
+        <f t="shared" si="9"/>
+        <v>4.448184224633847</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="3"/>
-        <v>15.242583209426195</v>
-      </c>
-      <c r="I39">
+        <v>20.132403162655933</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="4"/>
-        <v>24.856863380236021</v>
-      </c>
-      <c r="J39">
+        <v>43.333333333333329</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="5"/>
-        <v>43.333333333333329</v>
-      </c>
-      <c r="K39">
+        <v>1544.4444444444441</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="6"/>
-        <v>1544.4444444444441</v>
-      </c>
-      <c r="L39">
+        <v>0.10397831378701508</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="7"/>
-        <v>8.4215506249182143E-2</v>
-      </c>
-      <c r="M39">
+        <v>0.10397831378701508</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="8"/>
-        <v>8.4215506249182143E-2</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="9"/>
-        <v>8.4215506249182143E-2</v>
+        <v>0.10397831378701508</v>
       </c>
       <c r="O39">
         <v>0.5</v>
@@ -2683,7 +2683,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.43</v>
       </c>
@@ -2692,46 +2692,46 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.13773180314051645</v>
+        <v>0.4752836294492308</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>0.27546360628103289</v>
+        <v>0.95056725889846161</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>0.41319540942154936</v>
+        <v>1.4258508883476924</v>
       </c>
       <c r="G40">
         <v>0.1</v>
       </c>
       <c r="H40">
+        <f t="shared" si="9"/>
+        <v>4.4043876195759877</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="3"/>
-        <v>15.198619967224833</v>
-      </c>
-      <c r="I40">
+        <v>20.094780588646099</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="4"/>
-        <v>24.807249454755745</v>
-      </c>
-      <c r="J40">
+        <v>43.139534883720927</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="5"/>
-        <v>43.139534883720927</v>
-      </c>
-      <c r="K40">
+        <v>1535.4380746349375</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="6"/>
-        <v>1535.4380746349375</v>
-      </c>
-      <c r="L40">
+        <v>0.10417298781137742</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="7"/>
-        <v>8.4383935315006278E-2</v>
-      </c>
-      <c r="M40">
+        <v>0.10417298781137742</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="8"/>
-        <v>8.4383935315006278E-2</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="9"/>
-        <v>8.4383935315006278E-2</v>
+        <v>0.10417298781137742</v>
       </c>
       <c r="O40">
         <v>0.5</v>
@@ -2740,7 +2740,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.439999999999999</v>
       </c>
@@ -2749,46 +2749,46 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.13811508991230836</v>
+        <v>0.47991932388788466</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>0.27623017982461673</v>
+        <v>0.95983864777576933</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>0.41434526973692504</v>
+        <v>1.4397579716636539</v>
       </c>
       <c r="G41">
         <v>0.1</v>
       </c>
       <c r="H41">
+        <f t="shared" si="9"/>
+        <v>4.3618442290987289</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="3"/>
-        <v>15.156441882363664</v>
-      </c>
-      <c r="I41">
+        <v>20.058873493548166</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="4"/>
-        <v>24.759855639415889</v>
-      </c>
-      <c r="J41">
+        <v>42.954545454545467</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="5"/>
-        <v>42.954545454545467</v>
-      </c>
-      <c r="K41">
+        <v>1526.9111570247933</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="6"/>
-        <v>1526.9111570247933</v>
-      </c>
-      <c r="L41">
+        <v>0.10435946634822954</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="7"/>
-        <v>8.4545457930736034E-2</v>
-      </c>
-      <c r="M41">
+        <v>0.10435946634822954</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="8"/>
-        <v>8.4545457930736034E-2</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="9"/>
-        <v>8.4545457930736034E-2</v>
+        <v>0.10435946634822954</v>
       </c>
       <c r="O41">
         <v>0.5</v>
@@ -2797,7 +2797,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.44999999999999901</v>
       </c>
@@ -2806,46 +2806,46 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.13848514399593162</v>
+        <v>0.48451225485891525</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>0.27697028799186324</v>
+        <v>0.9690245097178305</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>0.41545543198779489</v>
+        <v>1.4535367645767459</v>
       </c>
       <c r="G42">
         <v>0.1</v>
       </c>
       <c r="H42">
+        <f t="shared" si="9"/>
+        <v>4.3204961532766379</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="3"/>
-        <v>15.115941486076158</v>
-      </c>
-      <c r="I42">
+        <v>20.024567735397483</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="4"/>
-        <v>24.714536471265692</v>
-      </c>
-      <c r="J42">
+        <v>42.777777777777793</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="5"/>
-        <v>42.777777777777793</v>
-      </c>
-      <c r="K42">
+        <v>1518.8271604938273</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="6"/>
-        <v>1518.8271604938273</v>
-      </c>
-      <c r="L42">
+        <v>0.10453825325941705</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="7"/>
-        <v>8.4700489356421604E-2</v>
-      </c>
-      <c r="M42">
+        <v>0.10453825325941705</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="8"/>
-        <v>8.4700489356421604E-2</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="9"/>
-        <v>8.4700489356421604E-2</v>
+        <v>0.10453825325941705</v>
       </c>
       <c r="O42">
         <v>0.5</v>
@@ -2854,7 +2854,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.45999999999999902</v>
       </c>
@@ -2863,46 +2863,46 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.13884264637014465</v>
+        <v>0.48906353635089467</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>0.2776852927402893</v>
+        <v>0.97812707270178934</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>0.4165279391104339</v>
+        <v>1.4671906090526841</v>
       </c>
       <c r="G43">
         <v>0.1</v>
       </c>
       <c r="H43">
+        <f t="shared" si="9"/>
+        <v>4.2802891193904156</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="3"/>
-        <v>15.077019835480918</v>
-      </c>
-      <c r="I43">
+        <v>19.991759037219666</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="4"/>
-        <v>24.671158902170916</v>
-      </c>
-      <c r="J43">
+        <v>42.608695652173921</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="5"/>
-        <v>42.608695652173921</v>
-      </c>
-      <c r="K43">
+        <v>1511.1531190926275</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="6"/>
-        <v>1511.1531190926275</v>
-      </c>
-      <c r="L43">
+        <v>0.10470981214989983</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="7"/>
-        <v>8.4849412288821688E-2</v>
-      </c>
-      <c r="M43">
+        <v>0.10470981214989983</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="8"/>
-        <v>8.4849412288821688E-2</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="9"/>
-        <v>8.4849412288821688E-2</v>
+        <v>0.10470981214989983</v>
       </c>
       <c r="O43">
         <v>0.5</v>
@@ -2911,7 +2911,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.46999999999999897</v>
       </c>
@@ -2920,46 +2920,46 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.13918823152081231</v>
+        <v>0.49357423727383348</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>0.27837646304162461</v>
+        <v>0.98714847454766697</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>0.41756469456243689</v>
+        <v>1.4807227118215003</v>
       </c>
       <c r="G44">
         <v>0.1</v>
       </c>
       <c r="H44">
+        <f t="shared" si="9"/>
+        <v>4.2411721991315332</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="3"/>
-        <v>15.039585678048686</v>
-      </c>
-      <c r="I44">
+        <v>19.960351947465146</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="4"/>
-        <v>24.629601003900905</v>
-      </c>
-      <c r="J44">
+        <v>42.446808510638313</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="5"/>
-        <v>42.446808510638313</v>
-      </c>
-      <c r="K44">
+        <v>1503.8592123132644</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="6"/>
-        <v>1503.8592123132644</v>
-      </c>
-      <c r="L44">
+        <v>0.10487457029028864</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="7"/>
-        <v>8.4992579985432373E-2</v>
-      </c>
-      <c r="M44">
+        <v>0.10487457029028864</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="8"/>
-        <v>8.4992579985432373E-2</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="9"/>
-        <v>8.4992579985432373E-2</v>
+        <v>0.10487457029028864</v>
       </c>
       <c r="O44">
         <v>0.5</v>
@@ -2968,7 +2968,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.47999999999999898</v>
       </c>
@@ -2977,46 +2977,46 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.13952249139322898</v>
+        <v>0.49804538379192875</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>0.27904498278645795</v>
+        <v>0.99609076758385751</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>0.41856747417968693</v>
+        <v>1.494136151375786</v>
       </c>
       <c r="G45">
         <v>0.1</v>
       </c>
       <c r="H45">
+        <f t="shared" si="9"/>
+        <v>4.2030975518646256</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="3"/>
-        <v>15.003554713150162</v>
-      </c>
-      <c r="I45">
+        <v>19.930258928812485</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="4"/>
-        <v>24.589750831789853</v>
-      </c>
-      <c r="J45">
+        <v>42.291666666666679</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="5"/>
-        <v>42.291666666666679</v>
-      </c>
-      <c r="K45">
+        <v>1496.9184027777778</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="6"/>
-        <v>1496.9184027777778</v>
-      </c>
-      <c r="L45">
+        <v>0.10503292209149746</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="7"/>
-        <v>8.5130319036297558E-2</v>
-      </c>
-      <c r="M45">
+        <v>0.10503292209149746</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="8"/>
-        <v>8.5130319036297558E-2</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="9"/>
-        <v>8.5130319036297558E-2</v>
+        <v>0.10503292209149746</v>
       </c>
       <c r="O45">
         <v>0.5</v>
@@ -3025,7 +3025,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.48999999999999899</v>
       </c>
@@ -3034,46 +3034,46 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.13984597894251347</v>
+        <v>0.50247796152091129</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>0.27969195788502693</v>
+        <v>1.0049559230418226</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>0.41953793682754048</v>
+        <v>1.5074338845627335</v>
       </c>
       <c r="G46">
         <v>0.1</v>
       </c>
       <c r="H46">
+        <f t="shared" si="9"/>
+        <v>4.1660201912083599</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="3"/>
-        <v>14.968848937686227</v>
-      </c>
-      <c r="I46">
+        <v>19.901399557264131</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="4"/>
-        <v>24.551505424791923</v>
-      </c>
-      <c r="J46">
+        <v>42.142857142857153</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="5"/>
-        <v>42.142857142857153</v>
-      </c>
-      <c r="K46">
+        <v>1490.3061224489802</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="6"/>
-        <v>1490.3061224489802</v>
-      </c>
-      <c r="L46">
+        <v>0.10518523218982627</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="7"/>
-        <v>8.5262931828999022E-2</v>
-      </c>
-      <c r="M46">
+        <v>0.10518523218982627</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="8"/>
-        <v>8.5262931828999022E-2</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="9"/>
-        <v>8.5262931828999022E-2</v>
+        <v>0.10518523218982627</v>
       </c>
       <c r="O46">
         <v>0.5</v>
@@ -3082,7 +3082,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.499999999999999</v>
       </c>
@@ -3091,46 +3091,46 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.14015921132963505</v>
+        <v>0.50687291759727859</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>0.28031842265927009</v>
+        <v>1.0137458351945572</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>0.42047763398890509</v>
+        <v>1.5206187527918356</v>
       </c>
       <c r="G47">
         <v>0.1</v>
       </c>
       <c r="H47">
+        <f t="shared" si="9"/>
+        <v>4.129897772515303</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="3"/>
-        <v>14.935396064765973</v>
-      </c>
-      <c r="I47">
+        <v>19.873699816304292</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="4"/>
-        <v>24.514769923223291</v>
-      </c>
-      <c r="J47">
+        <v>42.000000000000007</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="5"/>
-        <v>42.000000000000007</v>
-      </c>
-      <c r="K47">
+        <v>1484</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="6"/>
-        <v>1484</v>
-      </c>
-      <c r="L47">
+        <v>0.10533183819230139</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="7"/>
-        <v>8.5390698745668445E-2</v>
-      </c>
-      <c r="M47">
+        <v>0.10533183819230139</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="8"/>
-        <v>8.5390698745668445E-2</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="9"/>
-        <v>8.5390698745668445E-2</v>
+        <v>0.10533183819230139</v>
       </c>
       <c r="O47">
         <v>0.5</v>
@@ -3139,7 +3139,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.50999999999999901</v>
       </c>
@@ -3148,46 +3148,46 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.14046267280421271</v>
+        <v>0.51123116262660695</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>0.28092534560842541</v>
+        <v>1.0224623252532139</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>0.42138801841263812</v>
+        <v>1.5336934878798207</v>
       </c>
       <c r="G48">
         <v>0.1</v>
       </c>
       <c r="H48">
+        <f t="shared" si="9"/>
+        <v>4.0946903991106316</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="3"/>
-        <v>14.903129006032632</v>
-      </c>
-      <c r="I48">
+        <v>19.847091473241012</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="4"/>
-        <v>24.479456788357833</v>
-      </c>
-      <c r="J48">
+        <v>41.862745098039227</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="5"/>
-        <v>41.862745098039227</v>
-      </c>
-      <c r="K48">
+        <v>1477.979623221838</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="6"/>
-        <v>1477.979623221838</v>
-      </c>
-      <c r="L48">
+        <v>0.10547305312497227</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="7"/>
-        <v>8.5513880125350675E-2</v>
-      </c>
-      <c r="M48">
+        <v>0.10547305312497227</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="8"/>
-        <v>8.5513880125350675E-2</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="9"/>
-        <v>8.5513880125350675E-2</v>
+        <v>0.10547305312497227</v>
       </c>
       <c r="O48">
         <v>0.5</v>
@@ -3196,7 +3196,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.51999999999999902</v>
       </c>
@@ -3205,46 +3205,46 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.1407568173097892</v>
+        <v>0.515553572517923</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>0.2815136346195784</v>
+        <v>1.031107145035846</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>0.42227045192936757</v>
+        <v>1.546660717553769</v>
       </c>
       <c r="G49">
         <v>0.1</v>
       </c>
       <c r="H49">
+        <f t="shared" si="9"/>
+        <v>4.0603604453939841</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="3"/>
-        <v>14.871985409602955</v>
-      </c>
-      <c r="I49">
+        <v>19.821511526806582</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="4"/>
-        <v>24.445485110429889</v>
-      </c>
-      <c r="J49">
+        <v>41.730769230769241</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="5"/>
-        <v>41.730769230769241</v>
-      </c>
-      <c r="K49">
+        <v>1472.2263313609467</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="6"/>
-        <v>1472.2263313609467</v>
-      </c>
-      <c r="L49">
+        <v>0.10560916762086044</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="7"/>
-        <v>8.5632718020400164E-2</v>
-      </c>
-      <c r="M49">
+        <v>0.10560916762086044</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="8"/>
-        <v>8.5632718020400164E-2</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="9"/>
-        <v>8.5632718020400164E-2</v>
+        <v>0.10560916762086044</v>
       </c>
       <c r="O49">
         <v>0.5</v>
@@ -3253,7 +3253,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.52999999999999903</v>
       </c>
@@ -3262,46 +3262,46 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.1410420708426425</v>
+        <v>0.51984099021091046</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>0.28208414168528501</v>
+        <v>1.0396819804218209</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>0.42312621252792754</v>
+        <v>1.5595229706327316</v>
       </c>
       <c r="G50">
         <v>0.1</v>
       </c>
       <c r="H50">
+        <f t="shared" si="9"/>
+        <v>4.026872395122254</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="3"/>
-        <v>14.841907246730791</v>
-      </c>
-      <c r="I50">
+        <v>19.796901716716356</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="4"/>
-        <v>24.412779993587158</v>
-      </c>
-      <c r="J50">
+        <v>41.603773584905674</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="5"/>
-        <v>41.603773584905674</v>
-      </c>
-      <c r="K50">
+        <v>1466.7230331078676</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="6"/>
-        <v>1466.7230331078676</v>
-      </c>
-      <c r="L50">
+        <v>0.1057404518791816</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="7"/>
-        <v>8.5747437771659676E-2</v>
-      </c>
-      <c r="M50">
+        <v>0.1057404518791816</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="8"/>
-        <v>8.5747437771659676E-2</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="9"/>
-        <v>8.5747437771659676E-2</v>
+        <v>0.1057404518791816</v>
       </c>
       <c r="O50">
         <v>0.5</v>
@@ -3310,7 +3310,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.53999999999999904</v>
       </c>
@@ -3319,46 +3319,46 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.1413188335912392</v>
+        <v>0.52409422730242128</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>0.2826376671824784</v>
+        <v>1.0481884546048426</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>0.42395650077371766</v>
+        <v>1.5722826819072639</v>
       </c>
       <c r="G51">
         <v>0.1</v>
       </c>
       <c r="H51">
+        <f t="shared" si="9"/>
+        <v>3.994192693378789</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="3"/>
-        <v>14.812840441269433</v>
-      </c>
-      <c r="I51">
+        <v>19.773208087245045</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="4"/>
-        <v>24.381272008001545</v>
-      </c>
-      <c r="J51">
+        <v>41.481481481481488</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="5"/>
-        <v>41.481481481481488</v>
-      </c>
-      <c r="K51">
+        <v>1461.4540466392318</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="6"/>
-        <v>1461.4540466392318</v>
-      </c>
-      <c r="L51">
+        <v>0.10586715742316312</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="7"/>
-        <v>8.5858249423833785E-2</v>
-      </c>
-      <c r="M51">
+        <v>0.10586715742316312</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="8"/>
-        <v>8.5858249423833785E-2</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="9"/>
-        <v>8.5858249423833785E-2</v>
+        <v>0.10586715742316312</v>
       </c>
       <c r="O51">
         <v>0.5</v>
@@ -3367,7 +3367,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.54999999999999905</v>
       </c>
@@ -3376,46 +3376,46 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.14158748188003717</v>
+        <v>0.52831406557846583</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>0.28317496376007434</v>
+        <v>1.0566281311569317</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>0.42476244564011151</v>
+        <v>1.5849421967353976</v>
       </c>
       <c r="G52">
         <v>0.1</v>
       </c>
       <c r="H52">
+        <f t="shared" si="9"/>
+        <v>3.9622896108989338</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="3"/>
-        <v>14.784734536821215</v>
-      </c>
-      <c r="I52">
+        <v>19.750380598019756</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="4"/>
-        <v>24.350896700743313</v>
-      </c>
-      <c r="J52">
+        <v>41.363636363636374</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="5"/>
-        <v>41.363636363636374</v>
-      </c>
-      <c r="K52">
+        <v>1456.404958677686</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="6"/>
-        <v>1456.404958677686</v>
-      </c>
-      <c r="L52">
+        <v>0.10598951868012198</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="7"/>
-        <v>8.596534899962982E-2</v>
-      </c>
-      <c r="M52">
+        <v>0.10598951868012198</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="8"/>
-        <v>8.596534899962982E-2</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="9"/>
-        <v>8.596534899962982E-2</v>
+        <v>0.10598951868012198</v>
       </c>
       <c r="O52">
         <v>0.5</v>
@@ -3431,18 +3431,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43475BFB-CA04-4B66-9BC8-5E8BAF053FA2}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.08</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.09</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.11</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.12</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.13</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.14000000000000001</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.15</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.16</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.17</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.18</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.19</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0.2</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.21</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.22</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.23</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.24</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.25</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.26</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.27</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.28000000000000003</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.28999999999999998</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.3</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.31</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.32</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.33</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.34</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.35</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.36</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.37</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.38</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.39</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.4</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.41</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.42</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.43</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.439999999999999</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.44999999999999901</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.45999999999999902</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.46999999999999897</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.47999999999999898</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.48999999999999899</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.499999999999999</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.50999999999999901</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.51999999999999902</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.52999999999999903</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.53999999999999904</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.54999999999999905</v>
       </c>
@@ -4776,6 +4776,771 @@
       </c>
       <c r="I52">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.55999999999999905</v>
+      </c>
+      <c r="C53">
+        <v>0.53276999999999997</v>
+      </c>
+      <c r="D53">
+        <v>0.91091</v>
+      </c>
+      <c r="E53">
+        <v>1.0703</v>
+      </c>
+      <c r="F53">
+        <v>10.297700000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.56999999999999895</v>
+      </c>
+      <c r="C54">
+        <v>0.53720000000000001</v>
+      </c>
+      <c r="D54">
+        <v>0.91581000000000001</v>
+      </c>
+      <c r="E54">
+        <v>1.0843</v>
+      </c>
+      <c r="F54">
+        <v>10.1829</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.57999999999999896</v>
+      </c>
+      <c r="C55">
+        <v>0.54132999999999998</v>
+      </c>
+      <c r="D55">
+        <v>0.90795000000000003</v>
+      </c>
+      <c r="E55">
+        <v>1.0901000000000001</v>
+      </c>
+      <c r="F55">
+        <v>10.0486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.58999999999999897</v>
+      </c>
+      <c r="C56">
+        <v>0.54542999999999997</v>
+      </c>
+      <c r="D56">
+        <v>0.90239000000000003</v>
+      </c>
+      <c r="E56">
+        <v>1.2025999999999999</v>
+      </c>
+      <c r="F56">
+        <v>10.2036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="C57">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="D57">
+        <v>0.90258000000000005</v>
+      </c>
+      <c r="E57">
+        <v>1.3536999999999999</v>
+      </c>
+      <c r="F57">
+        <v>10.4476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.60999999999999899</v>
+      </c>
+      <c r="C58">
+        <v>0.55352999999999997</v>
+      </c>
+      <c r="D58">
+        <v>0.92325000000000002</v>
+      </c>
+      <c r="E58">
+        <v>1.1071</v>
+      </c>
+      <c r="F58">
+        <v>9.7233999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.619999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.55754000000000004</v>
+      </c>
+      <c r="D59">
+        <v>0.90397000000000005</v>
+      </c>
+      <c r="E59">
+        <v>1.272</v>
+      </c>
+      <c r="F59">
+        <v>9.9896999999999991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.62999999999999901</v>
+      </c>
+      <c r="C60">
+        <v>0.56152999999999997</v>
+      </c>
+      <c r="D60">
+        <v>0.89437</v>
+      </c>
+      <c r="E60">
+        <v>1.3534999999999999</v>
+      </c>
+      <c r="F60">
+        <v>10.1675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.63999999999999901</v>
+      </c>
+      <c r="C61">
+        <v>0.56547999999999998</v>
+      </c>
+      <c r="D61">
+        <v>0.89320999999999995</v>
+      </c>
+      <c r="E61">
+        <v>1.131</v>
+      </c>
+      <c r="F61">
+        <v>9.452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="C62">
+        <v>0.56940999999999997</v>
+      </c>
+      <c r="D62">
+        <v>0.90885000000000005</v>
+      </c>
+      <c r="E62">
+        <v>1.4326000000000001</v>
+      </c>
+      <c r="F62">
+        <v>10.0609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.65999999999999903</v>
+      </c>
+      <c r="C63">
+        <v>0.57330999999999999</v>
+      </c>
+      <c r="D63">
+        <v>0.90552999999999995</v>
+      </c>
+      <c r="E63">
+        <v>1.1486000000000001</v>
+      </c>
+      <c r="F63">
+        <v>9.2030999999999992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.66999999999999904</v>
+      </c>
+      <c r="C64">
+        <v>0.57718000000000003</v>
+      </c>
+      <c r="D64">
+        <v>0.91459000000000001</v>
+      </c>
+      <c r="E64">
+        <v>1.1544000000000001</v>
+      </c>
+      <c r="F64">
+        <v>9.0935000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.67999999999999905</v>
+      </c>
+      <c r="C65">
+        <v>0.58103000000000005</v>
+      </c>
+      <c r="D65">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="E65">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="F65">
+        <v>9.0287000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.68999999999999895</v>
+      </c>
+      <c r="C66">
+        <v>0.58486000000000005</v>
+      </c>
+      <c r="D66">
+        <v>0.91</v>
+      </c>
+      <c r="E66">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="F66">
+        <v>9.5667000000000009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="C67">
+        <v>0.58838000000000001</v>
+      </c>
+      <c r="D67">
+        <v>0.90271999999999997</v>
+      </c>
+      <c r="E67">
+        <v>1.3395999999999999</v>
+      </c>
+      <c r="F67">
+        <v>9.2417999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.70999999999999897</v>
+      </c>
+      <c r="C68">
+        <v>0.59221000000000001</v>
+      </c>
+      <c r="D68">
+        <v>0.90883000000000003</v>
+      </c>
+      <c r="E68">
+        <v>1.1849000000000001</v>
+      </c>
+      <c r="F68">
+        <v>8.7424999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.71999999999999897</v>
+      </c>
+      <c r="C69">
+        <v>0.59484000000000004</v>
+      </c>
+      <c r="D69">
+        <v>0.90883000000000003</v>
+      </c>
+      <c r="E69">
+        <v>1.7733000000000001</v>
+      </c>
+      <c r="F69">
+        <v>9.5275999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.72999999999999898</v>
+      </c>
+      <c r="C70">
+        <v>0.59992000000000001</v>
+      </c>
+      <c r="D70">
+        <v>0.89671000000000001</v>
+      </c>
+      <c r="E70">
+        <v>1.2758</v>
+      </c>
+      <c r="F70">
+        <v>8.7815999999999992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.73999999999999899</v>
+      </c>
+      <c r="C71">
+        <v>0.60328000000000004</v>
+      </c>
+      <c r="D71">
+        <v>0.89342999999999995</v>
+      </c>
+      <c r="E71">
+        <v>1.2682</v>
+      </c>
+      <c r="F71">
+        <v>8.6298999999999992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="C72">
+        <v>0.60731000000000002</v>
+      </c>
+      <c r="D72">
+        <v>0.91732999999999998</v>
+      </c>
+      <c r="E72">
+        <v>1.8219000000000001</v>
+      </c>
+      <c r="F72">
+        <v>9.1062999999999992</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.75999999999999901</v>
+      </c>
+      <c r="C73">
+        <v>0.61097000000000001</v>
+      </c>
+      <c r="D73">
+        <v>0.89415999999999995</v>
+      </c>
+      <c r="E73">
+        <v>1.2257</v>
+      </c>
+      <c r="F73">
+        <v>8.2700999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.76999999999999902</v>
+      </c>
+      <c r="C74">
+        <v>0.61460999999999999</v>
+      </c>
+      <c r="D74">
+        <v>0.90329000000000004</v>
+      </c>
+      <c r="E74">
+        <v>1.3517999999999999</v>
+      </c>
+      <c r="F74">
+        <v>8.5215999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.77999999999999903</v>
+      </c>
+      <c r="C75">
+        <v>0.61822999999999995</v>
+      </c>
+      <c r="D75">
+        <v>0.91959000000000002</v>
+      </c>
+      <c r="E75">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="F75">
+        <v>8.7310999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.78999999999999904</v>
+      </c>
+      <c r="C76">
+        <v>0.62182999999999999</v>
+      </c>
+      <c r="D76">
+        <v>0.90712999999999999</v>
+      </c>
+      <c r="E76">
+        <v>1.7027000000000001</v>
+      </c>
+      <c r="F76">
+        <v>8.7797999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.79999999999999905</v>
+      </c>
+      <c r="C77">
+        <v>0.62541000000000002</v>
+      </c>
+      <c r="D77">
+        <v>0.92659000000000002</v>
+      </c>
+      <c r="E77">
+        <v>1.8604000000000001</v>
+      </c>
+      <c r="F77">
+        <v>8.4982000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.80999999999999905</v>
+      </c>
+      <c r="C78">
+        <v>0.62895999999999996</v>
+      </c>
+      <c r="D78">
+        <v>0.89685999999999999</v>
+      </c>
+      <c r="E78">
+        <v>1.3421000000000001</v>
+      </c>
+      <c r="F78">
+        <v>8.0847999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.81999999999999895</v>
+      </c>
+      <c r="C79">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="D79">
+        <v>0.92259000000000002</v>
+      </c>
+      <c r="E79">
+        <v>1.8975</v>
+      </c>
+      <c r="F79">
+        <v>8.2467000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.82999999999999896</v>
+      </c>
+      <c r="C80">
+        <v>0.63565000000000005</v>
+      </c>
+      <c r="D80">
+        <v>0.90164</v>
+      </c>
+      <c r="E80">
+        <v>1.6655</v>
+      </c>
+      <c r="F80">
+        <v>8.3757000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.83999999999999897</v>
+      </c>
+      <c r="C81">
+        <v>0.63951999999999998</v>
+      </c>
+      <c r="D81">
+        <v>0.92139000000000004</v>
+      </c>
+      <c r="E81">
+        <v>1.9127000000000001</v>
+      </c>
+      <c r="F81">
+        <v>8.0373999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.84999999999999898</v>
+      </c>
+      <c r="C82">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D82">
+        <v>0.89773999999999998</v>
+      </c>
+      <c r="E82">
+        <v>1.5248999999999999</v>
+      </c>
+      <c r="F82">
+        <v>8.1143000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.85999999999999899</v>
+      </c>
+      <c r="C83">
+        <v>0.64646999999999999</v>
+      </c>
+      <c r="D83">
+        <v>0.87622999999999995</v>
+      </c>
+      <c r="E83">
+        <v>1.2928999999999999</v>
+      </c>
+      <c r="F83">
+        <v>7.5557999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.869999999999999</v>
+      </c>
+      <c r="C84">
+        <v>0.64990999999999999</v>
+      </c>
+      <c r="D84">
+        <v>0.91454000000000002</v>
+      </c>
+      <c r="E84">
+        <v>1.9003000000000001</v>
+      </c>
+      <c r="F84">
+        <v>7.7305000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.87999999999999901</v>
+      </c>
+      <c r="C85">
+        <v>0.65334000000000003</v>
+      </c>
+      <c r="D85">
+        <v>0.88783000000000001</v>
+      </c>
+      <c r="E85">
+        <v>1.4245000000000001</v>
+      </c>
+      <c r="F85">
+        <v>7.6642000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.88999999999999901</v>
+      </c>
+      <c r="C86">
+        <v>0.65673999999999999</v>
+      </c>
+      <c r="D86">
+        <v>0.91547999999999996</v>
+      </c>
+      <c r="E86">
+        <v>1.9702</v>
+      </c>
+      <c r="F86">
+        <v>7.4320000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.89999999999999902</v>
+      </c>
+      <c r="C87">
+        <v>0.65873999999999999</v>
+      </c>
+      <c r="D87">
+        <v>0.89507999999999999</v>
+      </c>
+      <c r="E87">
+        <v>1.4955000000000001</v>
+      </c>
+      <c r="F87">
+        <v>7.6620999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.90999999999999903</v>
+      </c>
+      <c r="C88">
+        <v>0.66351000000000004</v>
+      </c>
+      <c r="D88">
+        <v>0.91124000000000005</v>
+      </c>
+      <c r="E88">
+        <v>1.9904999999999999</v>
+      </c>
+      <c r="F88">
+        <v>7.2210999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.91999999999999904</v>
+      </c>
+      <c r="C89">
+        <v>0.66686999999999996</v>
+      </c>
+      <c r="D89">
+        <v>0.87995999999999996</v>
+      </c>
+      <c r="E89">
+        <v>1.4366000000000001</v>
+      </c>
+      <c r="F89">
+        <v>7.3731</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.92999999999999905</v>
+      </c>
+      <c r="C90">
+        <v>0.67020999999999997</v>
+      </c>
+      <c r="D90">
+        <v>0.90781000000000001</v>
+      </c>
+      <c r="E90">
+        <v>2.0106000000000002</v>
+      </c>
+      <c r="F90">
+        <v>6.9908999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.93999999999999895</v>
+      </c>
+      <c r="C91">
+        <v>0.67352999999999996</v>
+      </c>
+      <c r="D91">
+        <v>0.89426000000000005</v>
+      </c>
+      <c r="E91">
+        <v>1.8765000000000001</v>
+      </c>
+      <c r="F91">
+        <v>7.1791999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.94999999999999896</v>
+      </c>
+      <c r="C92">
+        <v>0.67684</v>
+      </c>
+      <c r="D92">
+        <v>0.89627999999999997</v>
+      </c>
+      <c r="E92">
+        <v>1.6154999999999999</v>
+      </c>
+      <c r="F92">
+        <v>7.3681999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.95999999999999897</v>
+      </c>
+      <c r="C93">
+        <v>0.68013000000000001</v>
+      </c>
+      <c r="D93">
+        <v>0.91308999999999996</v>
+      </c>
+      <c r="E93">
+        <v>1.9252</v>
+      </c>
+      <c r="F93">
+        <v>6.9842000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.96999999999999897</v>
+      </c>
+      <c r="C94">
+        <v>0.68340999999999996</v>
+      </c>
+      <c r="D94">
+        <v>0.90666999999999998</v>
+      </c>
+      <c r="E94">
+        <v>2.0421</v>
+      </c>
+      <c r="F94">
+        <v>6.5711000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.97999999999999898</v>
+      </c>
+      <c r="C95">
+        <v>0.68667</v>
+      </c>
+      <c r="D95">
+        <v>0.90515000000000001</v>
+      </c>
+      <c r="E95">
+        <v>2.0350999999999999</v>
+      </c>
+      <c r="F95">
+        <v>6.5660999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.98999999999999899</v>
+      </c>
+      <c r="C96">
+        <v>0.68991000000000002</v>
+      </c>
+      <c r="D96">
+        <v>0.89973000000000003</v>
+      </c>
+      <c r="E96">
+        <v>2.0646</v>
+      </c>
+      <c r="F96">
+        <v>6.3651999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="C97">
+        <v>0.69313999999999998</v>
+      </c>
+      <c r="D97">
+        <v>0.89188999999999996</v>
+      </c>
+      <c r="E97">
+        <v>2.0794000000000001</v>
+      </c>
+      <c r="F97">
+        <v>6.2679</v>
       </c>
     </row>
   </sheetData>

--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_Tai_lieu_hoc_tap\Do_an\Do_an_tn\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FAE91D-D307-4C56-82CC-F71954378F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AE3B85-CD82-446E-BA89-272A671756B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8916" yWindow="1944" windowWidth="12012" windowHeight="9456" firstSheet="1" activeTab="1" xr2:uid="{7A473C7D-50E6-4A4D-BC3D-26E431486829}"/>
   </bookViews>
@@ -3433,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43475BFB-CA04-4B66-9BC8-5E8BAF053FA2}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3486,6 +3486,18 @@
       <c r="B2">
         <v>0.5</v>
       </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0.50000999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.61089000000000004</v>
+      </c>
+      <c r="F2">
+        <v>27.178999999999998</v>
+      </c>
       <c r="G2">
         <v>0.1</v>
       </c>
@@ -3503,6 +3515,18 @@
       <c r="B3">
         <v>0.5</v>
       </c>
+      <c r="C3">
+        <v>0.25763999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.51529000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.73097999999999996</v>
+      </c>
+      <c r="F3">
+        <v>26.3537</v>
+      </c>
       <c r="G3">
         <v>0.1</v>
       </c>
@@ -3520,6 +3544,18 @@
       <c r="B4">
         <v>0.5</v>
       </c>
+      <c r="C4">
+        <v>0.25594</v>
+      </c>
+      <c r="D4">
+        <v>0.52975000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.79408999999999996</v>
+      </c>
+      <c r="F4">
+        <v>25.753799999999998</v>
+      </c>
       <c r="G4">
         <v>0.1</v>
       </c>
@@ -3537,6 +3573,18 @@
       <c r="B5">
         <v>0.5</v>
       </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.54557999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.79925999999999997</v>
+      </c>
+      <c r="F5">
+        <v>25.6203</v>
+      </c>
       <c r="G5">
         <v>0.1</v>
       </c>
@@ -3554,6 +3602,18 @@
       <c r="B6">
         <v>0.5</v>
       </c>
+      <c r="C6">
+        <v>0.24199000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.56028</v>
+      </c>
+      <c r="E6">
+        <v>0.75917000000000001</v>
+      </c>
+      <c r="F6">
+        <v>24.924499999999998</v>
+      </c>
       <c r="G6">
         <v>0.1</v>
       </c>
@@ -3570,6 +3630,18 @@
       </c>
       <c r="B7">
         <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.27206999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.57477</v>
+      </c>
+      <c r="E7">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="F7">
+        <v>24.020900000000001</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -3588,6 +3660,18 @@
       <c r="B8">
         <v>0.5</v>
       </c>
+      <c r="C8">
+        <v>0.25072</v>
+      </c>
+      <c r="D8">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.66144999999999998</v>
+      </c>
+      <c r="F8">
+        <v>24.175699999999999</v>
+      </c>
       <c r="G8">
         <v>0.1</v>
       </c>
@@ -3605,6 +3689,18 @@
       <c r="B9">
         <v>0.5</v>
       </c>
+      <c r="C9">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.60304999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="F9">
+        <v>23.1968</v>
+      </c>
       <c r="G9">
         <v>0.1</v>
       </c>
@@ -3622,6 +3718,18 @@
       <c r="B10">
         <v>0.5</v>
       </c>
+      <c r="C10">
+        <v>0.26212000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.61685000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.87324000000000002</v>
+      </c>
+      <c r="F10">
+        <v>22.764099999999999</v>
+      </c>
       <c r="G10">
         <v>0.1</v>
       </c>
@@ -3639,6 +3747,18 @@
       <c r="B11">
         <v>0.5</v>
       </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>0.63041999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.87178</v>
+      </c>
+      <c r="F11">
+        <v>22.940899999999999</v>
+      </c>
       <c r="G11">
         <v>0.1</v>
       </c>
@@ -3656,6 +3776,18 @@
       <c r="B12">
         <v>0.5</v>
       </c>
+      <c r="C12">
+        <v>0.32189000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.64356000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="F12">
+        <v>21.409199999999998</v>
+      </c>
       <c r="G12">
         <v>0.1</v>
       </c>
@@ -3673,6 +3805,18 @@
       <c r="B13">
         <v>0.5</v>
       </c>
+      <c r="C13">
+        <v>0.31734000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.65691999999999995</v>
+      </c>
+      <c r="E13">
+        <v>0.87046000000000001</v>
+      </c>
+      <c r="F13">
+        <v>20.813500000000001</v>
+      </c>
       <c r="G13">
         <v>0.1</v>
       </c>
@@ -3690,6 +3834,18 @@
       <c r="B14">
         <v>0.5</v>
       </c>
+      <c r="C14">
+        <v>0.33493000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.66986000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.75975000000000004</v>
+      </c>
+      <c r="F14">
+        <v>20.354099999999999</v>
+      </c>
       <c r="G14">
         <v>0.1</v>
       </c>
@@ -3707,6 +3863,18 @@
       <c r="B15">
         <v>0.5</v>
       </c>
+      <c r="C15">
+        <v>0.33955999999999997</v>
+      </c>
+      <c r="D15">
+        <v>0.68259000000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.86973</v>
+      </c>
+      <c r="F15">
+        <v>19.7182</v>
+      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
@@ -3724,6 +3892,18 @@
       <c r="B16">
         <v>0.5</v>
       </c>
+      <c r="C16">
+        <v>0.34676000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.69513000000000003</v>
+      </c>
+      <c r="E16">
+        <v>0.89707999999999999</v>
+      </c>
+      <c r="F16">
+        <v>19.142900000000001</v>
+      </c>
       <c r="G16">
         <v>0.1</v>
       </c>
@@ -4782,6 +4962,9 @@
       <c r="A53">
         <v>0.55999999999999905</v>
       </c>
+      <c r="B53">
+        <v>0.5</v>
+      </c>
       <c r="C53">
         <v>0.53276999999999997</v>
       </c>
@@ -4799,6 +4982,9 @@
       <c r="A54">
         <v>0.56999999999999895</v>
       </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
       <c r="C54">
         <v>0.53720000000000001</v>
       </c>
@@ -4816,6 +5002,9 @@
       <c r="A55">
         <v>0.57999999999999896</v>
       </c>
+      <c r="B55">
+        <v>0.5</v>
+      </c>
       <c r="C55">
         <v>0.54132999999999998</v>
       </c>
@@ -4833,6 +5022,9 @@
       <c r="A56">
         <v>0.58999999999999897</v>
       </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
       <c r="C56">
         <v>0.54542999999999997</v>
       </c>
@@ -4850,6 +5042,9 @@
       <c r="A57">
         <v>0.59999999999999898</v>
       </c>
+      <c r="B57">
+        <v>0.5</v>
+      </c>
       <c r="C57">
         <v>0.54949999999999999</v>
       </c>
@@ -4867,6 +5062,9 @@
       <c r="A58">
         <v>0.60999999999999899</v>
       </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
       <c r="C58">
         <v>0.55352999999999997</v>
       </c>
@@ -4884,6 +5082,9 @@
       <c r="A59">
         <v>0.619999999999999</v>
       </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
       <c r="C59">
         <v>0.55754000000000004</v>
       </c>
@@ -4901,6 +5102,9 @@
       <c r="A60">
         <v>0.62999999999999901</v>
       </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
       <c r="C60">
         <v>0.56152999999999997</v>
       </c>
@@ -4918,6 +5122,9 @@
       <c r="A61">
         <v>0.63999999999999901</v>
       </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
       <c r="C61">
         <v>0.56547999999999998</v>
       </c>
@@ -4935,6 +5142,9 @@
       <c r="A62">
         <v>0.64999999999999902</v>
       </c>
+      <c r="B62">
+        <v>0.5</v>
+      </c>
       <c r="C62">
         <v>0.56940999999999997</v>
       </c>
@@ -4952,6 +5162,9 @@
       <c r="A63">
         <v>0.65999999999999903</v>
       </c>
+      <c r="B63">
+        <v>0.5</v>
+      </c>
       <c r="C63">
         <v>0.57330999999999999</v>
       </c>
@@ -4969,6 +5182,9 @@
       <c r="A64">
         <v>0.66999999999999904</v>
       </c>
+      <c r="B64">
+        <v>0.5</v>
+      </c>
       <c r="C64">
         <v>0.57718000000000003</v>
       </c>
@@ -4986,6 +5202,9 @@
       <c r="A65">
         <v>0.67999999999999905</v>
       </c>
+      <c r="B65">
+        <v>0.5</v>
+      </c>
       <c r="C65">
         <v>0.58103000000000005</v>
       </c>
@@ -5003,6 +5222,9 @@
       <c r="A66">
         <v>0.68999999999999895</v>
       </c>
+      <c r="B66">
+        <v>0.5</v>
+      </c>
       <c r="C66">
         <v>0.58486000000000005</v>
       </c>
@@ -5020,6 +5242,9 @@
       <c r="A67">
         <v>0.69999999999999896</v>
       </c>
+      <c r="B67">
+        <v>0.5</v>
+      </c>
       <c r="C67">
         <v>0.58838000000000001</v>
       </c>
@@ -5037,6 +5262,9 @@
       <c r="A68">
         <v>0.70999999999999897</v>
       </c>
+      <c r="B68">
+        <v>0.5</v>
+      </c>
       <c r="C68">
         <v>0.59221000000000001</v>
       </c>
@@ -5054,6 +5282,9 @@
       <c r="A69">
         <v>0.71999999999999897</v>
       </c>
+      <c r="B69">
+        <v>0.5</v>
+      </c>
       <c r="C69">
         <v>0.59484000000000004</v>
       </c>
@@ -5071,6 +5302,9 @@
       <c r="A70">
         <v>0.72999999999999898</v>
       </c>
+      <c r="B70">
+        <v>0.5</v>
+      </c>
       <c r="C70">
         <v>0.59992000000000001</v>
       </c>
@@ -5088,6 +5322,9 @@
       <c r="A71">
         <v>0.73999999999999899</v>
       </c>
+      <c r="B71">
+        <v>0.5</v>
+      </c>
       <c r="C71">
         <v>0.60328000000000004</v>
       </c>
@@ -5105,6 +5342,9 @@
       <c r="A72">
         <v>0.749999999999999</v>
       </c>
+      <c r="B72">
+        <v>0.5</v>
+      </c>
       <c r="C72">
         <v>0.60731000000000002</v>
       </c>
@@ -5122,6 +5362,9 @@
       <c r="A73">
         <v>0.75999999999999901</v>
       </c>
+      <c r="B73">
+        <v>0.5</v>
+      </c>
       <c r="C73">
         <v>0.61097000000000001</v>
       </c>
@@ -5139,6 +5382,9 @@
       <c r="A74">
         <v>0.76999999999999902</v>
       </c>
+      <c r="B74">
+        <v>0.5</v>
+      </c>
       <c r="C74">
         <v>0.61460999999999999</v>
       </c>
@@ -5156,6 +5402,9 @@
       <c r="A75">
         <v>0.77999999999999903</v>
       </c>
+      <c r="B75">
+        <v>0.5</v>
+      </c>
       <c r="C75">
         <v>0.61822999999999995</v>
       </c>
@@ -5173,6 +5422,9 @@
       <c r="A76">
         <v>0.78999999999999904</v>
       </c>
+      <c r="B76">
+        <v>0.5</v>
+      </c>
       <c r="C76">
         <v>0.62182999999999999</v>
       </c>
@@ -5190,6 +5442,9 @@
       <c r="A77">
         <v>0.79999999999999905</v>
       </c>
+      <c r="B77">
+        <v>0.5</v>
+      </c>
       <c r="C77">
         <v>0.62541000000000002</v>
       </c>
@@ -5207,6 +5462,9 @@
       <c r="A78">
         <v>0.80999999999999905</v>
       </c>
+      <c r="B78">
+        <v>0.5</v>
+      </c>
       <c r="C78">
         <v>0.62895999999999996</v>
       </c>
@@ -5224,6 +5482,9 @@
       <c r="A79">
         <v>0.81999999999999895</v>
       </c>
+      <c r="B79">
+        <v>0.5</v>
+      </c>
       <c r="C79">
         <v>0.63249999999999995</v>
       </c>
@@ -5241,6 +5502,9 @@
       <c r="A80">
         <v>0.82999999999999896</v>
       </c>
+      <c r="B80">
+        <v>0.5</v>
+      </c>
       <c r="C80">
         <v>0.63565000000000005</v>
       </c>
@@ -5258,6 +5522,9 @@
       <c r="A81">
         <v>0.83999999999999897</v>
       </c>
+      <c r="B81">
+        <v>0.5</v>
+      </c>
       <c r="C81">
         <v>0.63951999999999998</v>
       </c>
@@ -5275,6 +5542,9 @@
       <c r="A82">
         <v>0.84999999999999898</v>
       </c>
+      <c r="B82">
+        <v>0.5</v>
+      </c>
       <c r="C82">
         <v>0.64300000000000002</v>
       </c>
@@ -5292,6 +5562,9 @@
       <c r="A83">
         <v>0.85999999999999899</v>
       </c>
+      <c r="B83">
+        <v>0.5</v>
+      </c>
       <c r="C83">
         <v>0.64646999999999999</v>
       </c>
@@ -5309,6 +5582,9 @@
       <c r="A84">
         <v>0.869999999999999</v>
       </c>
+      <c r="B84">
+        <v>0.5</v>
+      </c>
       <c r="C84">
         <v>0.64990999999999999</v>
       </c>
@@ -5326,6 +5602,9 @@
       <c r="A85">
         <v>0.87999999999999901</v>
       </c>
+      <c r="B85">
+        <v>0.5</v>
+      </c>
       <c r="C85">
         <v>0.65334000000000003</v>
       </c>
@@ -5343,6 +5622,9 @@
       <c r="A86">
         <v>0.88999999999999901</v>
       </c>
+      <c r="B86">
+        <v>0.5</v>
+      </c>
       <c r="C86">
         <v>0.65673999999999999</v>
       </c>
@@ -5360,6 +5642,9 @@
       <c r="A87">
         <v>0.89999999999999902</v>
       </c>
+      <c r="B87">
+        <v>0.5</v>
+      </c>
       <c r="C87">
         <v>0.65873999999999999</v>
       </c>
@@ -5377,6 +5662,9 @@
       <c r="A88">
         <v>0.90999999999999903</v>
       </c>
+      <c r="B88">
+        <v>0.5</v>
+      </c>
       <c r="C88">
         <v>0.66351000000000004</v>
       </c>
@@ -5394,6 +5682,9 @@
       <c r="A89">
         <v>0.91999999999999904</v>
       </c>
+      <c r="B89">
+        <v>0.5</v>
+      </c>
       <c r="C89">
         <v>0.66686999999999996</v>
       </c>
@@ -5411,6 +5702,9 @@
       <c r="A90">
         <v>0.92999999999999905</v>
       </c>
+      <c r="B90">
+        <v>0.5</v>
+      </c>
       <c r="C90">
         <v>0.67020999999999997</v>
       </c>
@@ -5428,6 +5722,9 @@
       <c r="A91">
         <v>0.93999999999999895</v>
       </c>
+      <c r="B91">
+        <v>0.5</v>
+      </c>
       <c r="C91">
         <v>0.67352999999999996</v>
       </c>
@@ -5445,6 +5742,9 @@
       <c r="A92">
         <v>0.94999999999999896</v>
       </c>
+      <c r="B92">
+        <v>0.5</v>
+      </c>
       <c r="C92">
         <v>0.67684</v>
       </c>
@@ -5462,6 +5762,9 @@
       <c r="A93">
         <v>0.95999999999999897</v>
       </c>
+      <c r="B93">
+        <v>0.5</v>
+      </c>
       <c r="C93">
         <v>0.68013000000000001</v>
       </c>
@@ -5479,6 +5782,9 @@
       <c r="A94">
         <v>0.96999999999999897</v>
       </c>
+      <c r="B94">
+        <v>0.5</v>
+      </c>
       <c r="C94">
         <v>0.68340999999999996</v>
       </c>
@@ -5496,6 +5802,9 @@
       <c r="A95">
         <v>0.97999999999999898</v>
       </c>
+      <c r="B95">
+        <v>0.5</v>
+      </c>
       <c r="C95">
         <v>0.68667</v>
       </c>
@@ -5513,6 +5822,9 @@
       <c r="A96">
         <v>0.98999999999999899</v>
       </c>
+      <c r="B96">
+        <v>0.5</v>
+      </c>
       <c r="C96">
         <v>0.68991000000000002</v>
       </c>
@@ -5529,6 +5841,9 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.999999999999999</v>
+      </c>
+      <c r="B97">
+        <v>0.5</v>
       </c>
       <c r="C97">
         <v>0.69313999999999998</v>
